--- a/Doc/2.UI/社内システム/支払承認内訳システム/画面レイアウト_支払承認内訳システム.xlsx
+++ b/Doc/2.UI/社内システム/支払承認内訳システム/画面レイアウト_支払承認内訳システム.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12285" tabRatio="774"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12285" tabRatio="774"/>
   </bookViews>
   <sheets>
     <sheet name="Main Manu" sheetId="11" r:id="rId1"/>
@@ -571,7 +571,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>終了</a:t>
+            <a:t>閉じる</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
